--- a/data/excel/nom_adj.xlsx
+++ b/data/excel/nom_adj.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,384 +450,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12180</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>time</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>taim</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>tiempo</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12181</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>dei</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>día</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12182</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>night</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>nait</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>noche</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12183</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>week</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>uuik</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>semana</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12184</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>month</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>monz</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>mes</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12185</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>yir</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>año</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12186</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>laif</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>vida</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12187</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>death</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>dez</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>muerte</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12188</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>love</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>lov</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>amor</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12189</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>hate</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>jeit</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>odio</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12190</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>idea</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>ai-dí-a</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>idea</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12191</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>truth</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>truz</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>verdad</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12192</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>lie</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>lai</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>mentira</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12193</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>chance</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>chans</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>oportunidad</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12194</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>luck</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>lok</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>suerte</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12195</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>dream</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>drim</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>sueño (aspiracional)</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12196</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>goal</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>goul</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>meta</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12197</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>fear</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>fir</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>miedo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12198</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>hope</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>joup</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>esperanza</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12199</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>need</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>nid</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>necesidad</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -840,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,384 +916,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12040</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>tree</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>tri</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>árbol</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12041</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>river</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>rí-ver</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>río</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12042</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>mountain</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>máun-ten</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>montaña</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12043</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>lake</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>leik</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>lago</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12044</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>sea</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>sii</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>mar</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12045</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>forest</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>fó-rest</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>bosque</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12046</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>hill</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>jil</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>colina</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12047</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>beach</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>bich</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>playa</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12048</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>rock</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>rok</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>roca</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12049</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>sand</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>sand</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>arena</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12050</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>cloud</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>claud</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>nube</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12051</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>rain</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>rein</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>lluvia</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12052</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>sun</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>son</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>sol</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12053</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>moon</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>mun</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>luna</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12054</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>star</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>star</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>estrella</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12055</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>wind</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>uuind</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>viento</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12056</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>snow</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>snou</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>nieve</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12057</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>storm</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>tormenta</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12058</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>leaf</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>lif</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>hoja</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12059</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>flower</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>flá-uer</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>flor</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1241,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1252,384 +1382,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12260</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>happy</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>já-pi</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>feliz</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12261</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>sad</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>sad</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>triste</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12262</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>angry</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>án-gri</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>enojado</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12263</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>kind</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>kaind</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>amable</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12264</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>mean</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>min</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>malo/mezquino</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12265</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>friendly</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>frend-li</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>amigable</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12266</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>rude</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>rud</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>grosero</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12267</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>shy</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>shai</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>tímido</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12268</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>brave</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>breiv</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>valiente</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12269</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>scared</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>skerd</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>asustado</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12270</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>calm</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>kalm</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>tranquilo</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12271</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>nervous</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>nér-ves</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>nervioso</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12272</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>lazy</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>léi-zi</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>perezoso</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12273</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>active</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ák-tiv</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>activo</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12274</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>polite</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>po-láit</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>educado</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12275</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>honest</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ó-nest</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>honesto</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12276</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>generous</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>llé-ne-ros</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>generoso</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12277</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>jealous</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>llé-los</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>celoso</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12278</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>funny</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>fá-ni</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>divertido</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12279</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>serious</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>sí-ri-es</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>serio</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1642,7 +1837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1653,384 +1848,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12140</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>shirt</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>shert</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>camisa</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12141</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>pants</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>pants</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>pantalones</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12142</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>jacket</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>llá-ket</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>chaqueta</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12143</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>coat</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>kout</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>abrigo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12144</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>shoes</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>shus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>zapatos</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12145</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>boots</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>buts</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>botas</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12146</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>socks</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>soks</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>calcetines</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12147</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>hat</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>jat</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>sombrero</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12148</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>cap</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kap</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>gorra</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12149</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>scarf</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>skarf</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>bufanda</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12150</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>gloves</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>glovs</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>guantes</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12151</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>belt</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>belt</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>cinturón</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12152</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>tie</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>tai</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>corbata</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12153</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>watch</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>uoch</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>reloj (de pulsera)</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12154</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>bag</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>bag</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>bolsa</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12155</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>purse</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>pors</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>bolso</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12156</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>sunglasses</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>sán-glas-es</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>gafas de sol</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12157</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>dress</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>dres</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>vestido</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12158</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>skirt</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>skert</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>falda</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12159</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>hoodie</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>jú-di</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>sudadera con capucha</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2043,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2054,384 +2314,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12200</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>big</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>grande</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12201</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>smol</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>pequeño</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12202</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>tall</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>tol</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>alto</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12203</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>corto/bajo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12204</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>wide</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>uaid</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>ancho</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12205</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>narrow</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>ná-rou</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>estrecho</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12206</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>largo</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12207</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>tiny</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>tái-ni</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>minúsculo</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12208</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>huge</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>jiudg</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>enorme</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12209</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>round</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>raund</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>redondo</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12210</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>square</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>skuér</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>cuadrado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12211</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>flat</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>plano</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12212</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>thin</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>zin</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>fino/delgado</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12213</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>thick</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>zik</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>grueso</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12214</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>deep</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>dip</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>profundo</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12215</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>shallow</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>shá-lou</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>poco profundo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12216</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>straight</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>streit</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>recto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12217</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>curved</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>korvd</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>curvado</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12218</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>sharp</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>sharp</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>afilado</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12219</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>soft</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>soft</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>suave</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2444,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2455,384 +2780,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12120</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>phone</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>foun</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>teléfono</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12121</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>computer</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>kom-piú-ter</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>computadora</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12122</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>skrin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>pantalla</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12123</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>charger</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>chár-dyer</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>cargador</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12124</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>bá-te-ri</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>batería</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12125</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>keyboard</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>kí-bord</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>teclado</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12126</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>mouse</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>maus</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>ratón</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12127</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>mó-ni-tor</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12128</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>laptop</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>láp-top</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>portátil</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12129</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>cable</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>kéi-bul</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>cable</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12130</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>button</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>bó-ton</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>botón</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12131</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>speaker</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>spí-ker</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>altavoz</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12132</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>ká-me-ra</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>cámara</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12133</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>app</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>ap</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>aplicación</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12134</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>síg-nal</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>señal</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12135</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>file</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>archivo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12136</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>folder</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>fól-der</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>carpeta</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12137</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>message</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>mé-sich</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>mensaje</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12138</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>í-meil</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>correo electrónico</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12139</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>pás-uord</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>contraseña</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2845,7 +3235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2856,384 +3246,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12160</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>kar</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>coche</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12161</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>bus</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>bos</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>autobús</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12162</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>bike</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>baik</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>bicicleta</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12163</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>train</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>trein</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>tren</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12164</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>plane</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>plein</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>avión</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12165</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>boat</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>bout</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>barco</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12166</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>truck</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>trok</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>camión</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12167</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>scooter</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>skú-ter</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>patinete</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12168</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>subway</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>sáb-uei</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>metro</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12169</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>taxi</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>ták-si</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>taxi</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12170</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>van</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>furgoneta</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12171</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>driver</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>drai-ver</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>conductor</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12172</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>passenger</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>pá-sen-dyer</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>pasajero</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12173</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>road</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>roud</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>carretera</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12174</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>uuil</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>rueda</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12175</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>engine</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>én-dyin</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>motor</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12176</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>seat</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>sit</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>asiento</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12177</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>ticket</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>tí-ket</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>billete</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12178</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>stéi-shon</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>estación</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12179</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>mapa</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3246,7 +3701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,384 +3712,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12280</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>good</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>gud</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>bueno</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12281</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>bad</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>bad</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>malo</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12282</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>excellent</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>ék-se-lent</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>excelente</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12283</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>terrible</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>té-ri-bl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>terrible</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12284</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>useful</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>iús-ful</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>útil</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12285</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>useless</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>iús-les</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>inútil</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12286</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>valuable</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>vál-iu-abl</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>valioso</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12287</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>cheap</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>chip</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>barato</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12288</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>expensive</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>eks-pén-siv</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>caro</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12289</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>important</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>im-por-tant</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>importante</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12290</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>necessary</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>né-se-se-ri</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>necesario</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12291</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>simple</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>sím-pl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>sencillo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12292</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>complex</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>kom-pléks</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>complejo</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12293</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>strong</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>strong</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>fuerte</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12294</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>weak</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>uuik</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>débil</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12295</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>smart</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>smart</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>inteligente</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12296</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>dumb</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>domb</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>tonto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12297</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>klin</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>limpio</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12298</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>safe</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>seif</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>seguro</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12299</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>dangerous</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>déin-ller-os</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>peligroso</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3647,7 +4167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3658,384 +4178,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12220</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>rojo</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12221</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>blue</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>blu</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>azul</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12222</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>grin</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>verde</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12223</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>yellow</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>yé-lou</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>amarillo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12224</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>black</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>blak</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>negro</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12225</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>white</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>uaít</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>blanco</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12226</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>gray</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>grei</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>gris</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12227</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>brown</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>braun</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>marrón</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12228</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>pink</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>rosa</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12229</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>orange</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>ó-ranch</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>naranja</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12230</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>purple</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>pér-pl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>morado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12231</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>bright</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>brait</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>brillante</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12232</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>dark</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>dark</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>oscuro</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12233</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>shiny</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>shái-ni</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>reluciente</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12234</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>pale</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>peil</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>pálido</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12235</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>colorful</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ká-lor-ful</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>colorido</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12236</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>dull</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>dol</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>apagado</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12237</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>clean</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>klin</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>limpio</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12238</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>dirty</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>dér-ti</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>sucio</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12239</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>neat</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>nit</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>ordenado</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4048,7 +4633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4059,384 +4644,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12100</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>uó-ter</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>agua</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12101</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>bread</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>bred</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>pan</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12102</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>milk</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>leche</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12103</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>juice</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>llus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>jugo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12104</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>apple</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>á-pel</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>manzana</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12105</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>banana</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>ba-ná-na</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>plátano</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12106</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>meat</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>mit</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>carne</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12107</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>chí-ken</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>pollo</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12108</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>rice</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>rais</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>arroz</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12109</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>pasta</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>pás-ta</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>pasta</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12110</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>soup</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>sup</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>sopa</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12111</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>fish</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>fish</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>pescado</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12112</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>cheese</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>chis</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>queso</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12113</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>egg</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>eg</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>huevo</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12114</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>salad</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>sá-lad</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>ensalada</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12115</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>coffee</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>kó-fi</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>café</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12116</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tea</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ti</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>té</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12117</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>sugar</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>shú-gar</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>azúcar</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12118</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>salt</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>solt</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>sal</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12119</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>oil</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>oil</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>aceite</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4449,7 +5099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4460,384 +5110,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12080</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>head</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>hed</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>cabeza</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12081</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>face</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>feis</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>cara</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12082</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>hair</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>her</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>cabello</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12083</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>eye</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>ai</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ojo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12084</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>nose</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>nous</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>nariz</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12085</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>mouth</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>mauz</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>boca</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12086</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>ear</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ir</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>oreja</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12087</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>neck</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>nek</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>cuello</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12088</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>shoulder</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>shól-der</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>hombro</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12089</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>arm</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>arm</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>brazo</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12090</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>hand</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>jand</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>mano</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12091</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>finger</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>fín-ger</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>dedo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12092</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>chest</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>chest</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>pecho</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12093</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>stomach</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>stó-mak</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>estómago</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12094</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>leg</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>leg</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>pierna</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12095</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>knee</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>ni</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>rodilla</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12096</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>foot</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>fut</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>pie</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12097</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>toe</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>tou</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>dedo del pie</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12098</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>skin</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>skin</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>piel</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12099</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>heart</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>jart</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>corazón</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4850,7 +5565,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4861,384 +5576,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>table</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>téibol</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>mesa</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12001</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>chair</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>cher</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>silla</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12002</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>bed</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>bed</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>cama</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12003</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>window</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>uín-dou</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ventana</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12004</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>door</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>dor</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>puerta</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12005</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>lamp</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>lamp</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>lámpara</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12006</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>sofa</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>sóufa</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>sofá</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12007</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>kitchen</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>kíchin</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>cocina</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12008</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>bathroom</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>báz-rum</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>baño</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12009</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>mirror</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>míror</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>espejo</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12010</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>floor</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>flor</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>piso/suelo</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12011</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>ceiling</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>sí-ling</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>techo</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12012</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>wall</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>uol</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>pared</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12013</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>fridge</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>fridg</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>refrigerador</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12014</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>oven</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>óven</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>horno</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12015</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>sink</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>sink</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>fregadero</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12016</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>towel</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>tá-uel</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>toalla</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12017</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>pillow</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>pí-lou</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>almohada</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12018</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>blanket</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>blán-ket</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>manta</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12019</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>drawer</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>drór</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>cajón</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5251,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5262,384 +6042,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12020</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>street</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>strit</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>calle</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12021</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>building</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>bíl-ding</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>edificio</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12022</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>traffic</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>trá-fik</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>tráfico</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12023</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>lait</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>luz/semáforo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12024</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>crosswalk</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>krós-uok</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>paso de peatones</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12025</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>sidewalk</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>sáid-uok</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>acera</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12026</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>parque</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12027</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>car</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>kar</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>coche</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12028</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>bus</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>bos</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>autobús</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12029</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>train</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>trein</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>tren</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12030</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>subway</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>sáb-uei</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>metro</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12031</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>taxi</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>ták-si</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>taxi</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12032</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>corner</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>kór-ner</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>esquina</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12033</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>shop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>tienda</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12034</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>mall</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>mol</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>centro comercial</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12035</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>skul</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>escuela</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12036</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>hós-pi-tal</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>hospital</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12037</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>station</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>stéi-shon</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>estación</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12038</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>bridge</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>bridg</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>puente</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12039</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>square</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>skuér</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>plaza</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5652,7 +6497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5663,384 +6508,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12060</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>buk</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>libro</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12061</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>notebook</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>nóut-buk</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>cuaderno</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12062</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>pencil</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>pén-sil</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>lápiz</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12063</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>pen</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>pen</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>bolígrafo</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12064</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>eraser</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>i-réi-ser</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>borrador</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12065</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>paper</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>péi-per</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>papel</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12066</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>folder</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>fól-der</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>carpeta</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12067</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>desk</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>desk</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>escritorio</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12068</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>computer</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>kom-piú-ter</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>computadora</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12069</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>screen</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>skrin</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>pantalla</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12070</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>keyboard</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>kí-bord</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>teclado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12071</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>mouse</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>maus</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ratón</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12072</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>printer</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>prín-ter</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>impresora</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12073</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>document</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>dók-iu-ment</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>documento</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12074</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>report</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>ri-port</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>reporte</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12075</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>task</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>tarea</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12076</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>exam</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>eg-zám</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>examen</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12077</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>class</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>klas</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>clase</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12078</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>pró-yect</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>proyecto</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12079</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>boss</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>bos</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>jefe</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6053,7 +6963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6064,384 +6974,449 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Inglés</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Pronunciación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Traducción</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Visualización</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>12240</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>hot</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>jot</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>caliente</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>12241</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>cold</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>kould</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>frío</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12242</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>warm</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>uorm</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>tibio</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>12243</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>cool</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>kul</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>fresco</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>12244</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>wet</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>uet</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>mojado</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>12245</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>dry</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>drai</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>seco</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>12246</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>ful</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>lleno</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>12247</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>ém-ti</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>vacío</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>12248</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>broken</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>bró-ken</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>roto</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12249</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>fixed</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>fikst</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>arreglado</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>12250</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>heavy</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>jé-vi</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>pesado</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12251</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>light</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>lait</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ligero</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>12252</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>noisy</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>nói-zi</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>ruidoso</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>12253</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>quiet</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>kuái-et</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>silencioso</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>12254</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>smooth</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>smu-z</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>suave</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>12255</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>rough</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>rof</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>áspero</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>12256</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>óu-pen</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>abierto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>12257</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>kloust</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>cerrado</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>12258</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>tight</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>tait</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>apretado</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>12259</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>loose</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>lus</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>suelto</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/excel/nom_adj.xlsx
+++ b/data/excel/nom_adj.xlsx
@@ -7,21 +7,21 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abstractos comunes" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calidad o valor" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color y apariencia" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comida y bebida" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="En el hogar" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="En la ciudad" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Naturaleza" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Escuela  trabajo" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuerpo humano" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="En el hogar" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="En la ciudad" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Escuela  trabajo" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estado físico" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Naturaleza" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Personalidad y emociones" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ropa y accesorios" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tamaño y forma" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tecnología básica" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transporte" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comida y bebida" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tecnología básica" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ropa y accesorios" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transporte" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abstractos comunes" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tamaño y forma" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color y apariencia" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Estado físico" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Personalidad y emociones" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calidad o valor" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,420 +476,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12180</v>
+        <v>12000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>table</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>taim</t>
+          <t>téibol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>tiempo</t>
+          <t>mesa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12181</v>
+        <v>12001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>day</t>
+          <t>chair</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dei</t>
+          <t>cher</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>día</t>
+          <t>silla</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12182</v>
+        <v>12002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>nait</t>
+          <t>bed</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>noche</t>
+          <t>cama</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12183</v>
+        <v>12003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>week</t>
+          <t>window</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>uuik</t>
+          <t>uín-dou</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>semana</t>
+          <t>ventana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12184</v>
+        <v>12004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>month</t>
+          <t>door</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>monz</t>
+          <t>dor</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>mes</t>
+          <t>puerta</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12185</v>
+        <v>12005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>yir</t>
+          <t>lamp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>año</t>
+          <t>lámpara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12186</v>
+        <v>12006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>life</t>
+          <t>sofa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>laif</t>
+          <t>sóufa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vida</t>
+          <t>sofá</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12187</v>
+        <v>12007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>death</t>
+          <t>kitchen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dez</t>
+          <t>kíchin</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>muerte</t>
+          <t>cocina</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12188</v>
+        <v>12008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>love</t>
+          <t>bathroom</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>lov</t>
+          <t>báz-rum</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>amor</t>
+          <t>baño</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12189</v>
+        <v>12009</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>hate</t>
+          <t>mirror</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>jeit</t>
+          <t>míror</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>odio</t>
+          <t>espejo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12190</v>
+        <v>12010</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>floor</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ai-dí-a</t>
+          <t>flor</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>idea</t>
+          <t>piso/suelo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12191</v>
+        <v>12011</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>truth</t>
+          <t>ceiling</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>truz</t>
+          <t>sí-ling</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>verdad</t>
+          <t>techo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12192</v>
+        <v>12012</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lie</t>
+          <t>wall</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lai</t>
+          <t>uol</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>mentira</t>
+          <t>pared</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12193</v>
+        <v>12013</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chance</t>
+          <t>fridge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chans</t>
+          <t>fridg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>oportunidad</t>
+          <t>refrigerador</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12194</v>
+        <v>12014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>luck</t>
+          <t>oven</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>lok</t>
+          <t>óven</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>suerte</t>
+          <t>horno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12195</v>
+        <v>12015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>dream</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>drim</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sueño (aspiracional)</t>
+          <t>fregadero</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12196</v>
+        <v>12016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>towel</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>goul</t>
+          <t>tá-uel</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>meta</t>
+          <t>toalla</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12197</v>
+        <v>12017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>pillow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>fir</t>
+          <t>pí-lou</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>miedo</t>
+          <t>almohada</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12198</v>
+        <v>12018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>hope</t>
+          <t>blanket</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joup</t>
+          <t>blán-ket</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>esperanza</t>
+          <t>manta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12199</v>
+        <v>12019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>need</t>
+          <t>drawer</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nid</t>
+          <t>drór</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>necesidad</t>
+          <t>cajón</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -942,420 +942,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12040</v>
+        <v>12180</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>tree</t>
+          <t>time</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>tri</t>
+          <t>taim</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>árbol</t>
+          <t>tiempo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12041</v>
+        <v>12181</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>river</t>
+          <t>day</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>rí-ver</t>
+          <t>dei</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>río</t>
+          <t>día</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12042</v>
+        <v>12182</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mountain</t>
+          <t>night</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>máun-ten</t>
+          <t>nait</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>montaña</t>
+          <t>noche</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12043</v>
+        <v>12183</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>lake</t>
+          <t>week</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>leik</t>
+          <t>uuik</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>lago</t>
+          <t>semana</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12044</v>
+        <v>12184</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sea</t>
+          <t>month</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sii</t>
+          <t>monz</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>mar</t>
+          <t>mes</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12045</v>
+        <v>12185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>forest</t>
+          <t>year</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>fó-rest</t>
+          <t>yir</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>bosque</t>
+          <t>año</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12046</v>
+        <v>12186</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>hill</t>
+          <t>life</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jil</t>
+          <t>laif</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>colina</t>
+          <t>vida</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12047</v>
+        <v>12187</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>beach</t>
+          <t>death</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bich</t>
+          <t>dez</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>playa</t>
+          <t>muerte</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12048</v>
+        <v>12188</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rock</t>
+          <t>love</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rok</t>
+          <t>lov</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>roca</t>
+          <t>amor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12049</v>
+        <v>12189</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>hate</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>jeit</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>arena</t>
+          <t>odio</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12050</v>
+        <v>12190</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cloud</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>claud</t>
+          <t>ai-dí-a</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>nube</t>
+          <t>idea</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12051</v>
+        <v>12191</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>truth</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>rein</t>
+          <t>truz</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>lluvia</t>
+          <t>verdad</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12052</v>
+        <v>12192</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>sun</t>
+          <t>lie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>son</t>
+          <t>lai</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sol</t>
+          <t>mentira</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12053</v>
+        <v>12193</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>moon</t>
+          <t>chance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mun</t>
+          <t>chans</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>luna</t>
+          <t>oportunidad</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12054</v>
+        <v>12194</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>luck</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>star</t>
+          <t>lok</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>estrella</t>
+          <t>suerte</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12055</v>
+        <v>12195</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>wind</t>
+          <t>dream</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>uuind</t>
+          <t>drim</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>viento</t>
+          <t>sueño (aspiracional)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12056</v>
+        <v>12196</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>snou</t>
+          <t>goul</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>nieve</t>
+          <t>meta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12057</v>
+        <v>12197</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>storm</t>
+          <t>fir</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>tormenta</t>
+          <t>miedo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12058</v>
+        <v>12198</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>hope</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lif</t>
+          <t>joup</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>hoja</t>
+          <t>esperanza</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12059</v>
+        <v>12199</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>need</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>flá-uer</t>
+          <t>nid</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>flor</t>
+          <t>necesidad</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1408,420 +1408,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12260</v>
+        <v>12200</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>big</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>já-pi</t>
+          <t>big</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>feliz</t>
+          <t>grande</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12261</v>
+        <v>12201</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>small</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sad</t>
+          <t>smol</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>triste</t>
+          <t>pequeño</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12262</v>
+        <v>12202</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>angry</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>án-gri</t>
+          <t>tol</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>enojado</t>
+          <t>alto</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12263</v>
+        <v>12203</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kaind</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>amable</t>
+          <t>corto/bajo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12264</v>
+        <v>12204</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>wide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>uaid</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>malo/mezquino</t>
+          <t>ancho</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12265</v>
+        <v>12205</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>friendly</t>
+          <t>narrow</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>frend-li</t>
+          <t>ná-rou</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>amigable</t>
+          <t>estrecho</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12266</v>
+        <v>12206</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rude</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>rud</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>grosero</t>
+          <t>largo</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12267</v>
+        <v>12207</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>shy</t>
+          <t>tiny</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>shai</t>
+          <t>tái-ni</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>tímido</t>
+          <t>minúsculo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12268</v>
+        <v>12208</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>brave</t>
+          <t>huge</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>breiv</t>
+          <t>jiudg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>valiente</t>
+          <t>enorme</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12269</v>
+        <v>12209</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>scared</t>
+          <t>round</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>skerd</t>
+          <t>raund</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>asustado</t>
+          <t>redondo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12270</v>
+        <v>12210</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>calm</t>
+          <t>square</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>kalm</t>
+          <t>skuér</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>tranquilo</t>
+          <t>cuadrado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12271</v>
+        <v>12211</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nervous</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>nér-ves</t>
+          <t>flat</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>nervioso</t>
+          <t>plano</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12272</v>
+        <v>12212</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lazy</t>
+          <t>thin</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>léi-zi</t>
+          <t>zin</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>perezoso</t>
+          <t>fino/delgado</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12273</v>
+        <v>12213</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>thick</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ák-tiv</t>
+          <t>zik</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>activo</t>
+          <t>grueso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12274</v>
+        <v>12214</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>polite</t>
+          <t>deep</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>po-láit</t>
+          <t>dip</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>educado</t>
+          <t>profundo</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12275</v>
+        <v>12215</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>honest</t>
+          <t>shallow</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ó-nest</t>
+          <t>shá-lou</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>honesto</t>
+          <t>poco profundo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12276</v>
+        <v>12216</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>generous</t>
+          <t>straight</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>llé-ne-ros</t>
+          <t>streit</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>generoso</t>
+          <t>recto</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12277</v>
+        <v>12217</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jealous</t>
+          <t>curved</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>llé-los</t>
+          <t>korvd</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>celoso</t>
+          <t>curvado</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12278</v>
+        <v>12218</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>funny</t>
+          <t>sharp</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>fá-ni</t>
+          <t>sharp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>divertido</t>
+          <t>afilado</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12279</v>
+        <v>12219</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>serious</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sí-ri-es</t>
+          <t>soft</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>serio</t>
+          <t>suave</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1874,420 +1874,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12140</v>
+        <v>12220</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>shirt</t>
+          <t>red</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>shert</t>
+          <t>red</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>camisa</t>
+          <t>rojo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12141</v>
+        <v>12221</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>blue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>pants</t>
+          <t>blu</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pantalones</t>
+          <t>azul</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12142</v>
+        <v>12222</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jacket</t>
+          <t>green</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>llá-ket</t>
+          <t>grin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>chaqueta</t>
+          <t>verde</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12143</v>
+        <v>12223</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>coat</t>
+          <t>yellow</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kout</t>
+          <t>yé-lou</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>abrigo</t>
+          <t>amarillo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12144</v>
+        <v>12224</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>shoes</t>
+          <t>black</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>shus</t>
+          <t>blak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>zapatos</t>
+          <t>negro</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12145</v>
+        <v>12225</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>boots</t>
+          <t>white</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>buts</t>
+          <t>uaít</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>botas</t>
+          <t>blanco</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12146</v>
+        <v>12226</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>socks</t>
+          <t>gray</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>soks</t>
+          <t>grei</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>calcetines</t>
+          <t>gris</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12147</v>
+        <v>12227</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>brown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>jat</t>
+          <t>braun</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sombrero</t>
+          <t>marrón</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12148</v>
+        <v>12228</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cap</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kap</t>
+          <t>pink</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gorra</t>
+          <t>rosa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12149</v>
+        <v>12229</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>scarf</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>skarf</t>
+          <t>ó-ranch</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>bufanda</t>
+          <t>naranja</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12150</v>
+        <v>12230</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gloves</t>
+          <t>purple</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>glovs</t>
+          <t>pér-pl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>guantes</t>
+          <t>morado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12151</v>
+        <v>12231</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>belt</t>
+          <t>brait</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>cinturón</t>
+          <t>brillante</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12152</v>
+        <v>12232</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tie</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>tai</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>corbata</t>
+          <t>oscuro</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12153</v>
+        <v>12233</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>watch</t>
+          <t>shiny</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>uoch</t>
+          <t>shái-ni</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>reloj (de pulsera)</t>
+          <t>reluciente</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12154</v>
+        <v>12234</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>pale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>bag</t>
+          <t>peil</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>bolsa</t>
+          <t>pálido</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12155</v>
+        <v>12235</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>purse</t>
+          <t>colorful</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>pors</t>
+          <t>ká-lor-ful</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>bolso</t>
+          <t>colorido</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12156</v>
+        <v>12236</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>sunglasses</t>
+          <t>dull</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sán-glas-es</t>
+          <t>dol</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>gafas de sol</t>
+          <t>apagado</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12157</v>
+        <v>12237</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>dress</t>
+          <t>clean</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>dres</t>
+          <t>klin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vestido</t>
+          <t>limpio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12158</v>
+        <v>12238</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>skirt</t>
+          <t>dirty</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>skert</t>
+          <t>dér-ti</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>falda</t>
+          <t>sucio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12159</v>
+        <v>12239</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>hoodie</t>
+          <t>neat</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>jú-di</t>
+          <t>nit</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sudadera con capucha</t>
+          <t>ordenado</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2340,420 +2340,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12200</v>
+        <v>12240</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>hot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>big</t>
+          <t>jot</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>grande</t>
+          <t>caliente</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12201</v>
+        <v>12241</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>cold</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>smol</t>
+          <t>kould</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pequeño</t>
+          <t>frío</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12202</v>
+        <v>12242</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>warm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>tol</t>
+          <t>uorm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>alto</t>
+          <t>tibio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12203</v>
+        <v>12243</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>cool</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>kul</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>corto/bajo</t>
+          <t>fresco</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12204</v>
+        <v>12244</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wide</t>
+          <t>wet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>uaid</t>
+          <t>uet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ancho</t>
+          <t>mojado</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12205</v>
+        <v>12245</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>narrow</t>
+          <t>dry</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ná-rou</t>
+          <t>drai</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>estrecho</t>
+          <t>seco</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12206</v>
+        <v>12246</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>full</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>ful</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>largo</t>
+          <t>lleno</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12207</v>
+        <v>12247</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tiny</t>
+          <t>empty</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>tái-ni</t>
+          <t>ém-ti</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>minúsculo</t>
+          <t>vacío</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12208</v>
+        <v>12248</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>huge</t>
+          <t>broken</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>jiudg</t>
+          <t>bró-ken</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>enorme</t>
+          <t>roto</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12209</v>
+        <v>12249</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>round</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>raund</t>
+          <t>fikst</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>redondo</t>
+          <t>arreglado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12210</v>
+        <v>12250</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>square</t>
+          <t>heavy</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>skuér</t>
+          <t>jé-vi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cuadrado</t>
+          <t>pesado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12211</v>
+        <v>12251</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>light</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>flat</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>plano</t>
+          <t>ligero</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12212</v>
+        <v>12252</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>thin</t>
+          <t>noisy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>zin</t>
+          <t>nói-zi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>fino/delgado</t>
+          <t>ruidoso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12213</v>
+        <v>12253</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>thick</t>
+          <t>quiet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>zik</t>
+          <t>kuái-et</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>grueso</t>
+          <t>silencioso</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12214</v>
+        <v>12254</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>deep</t>
+          <t>smooth</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>dip</t>
+          <t>smu-z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>profundo</t>
+          <t>suave</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12215</v>
+        <v>12255</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>shallow</t>
+          <t>rough</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>shá-lou</t>
+          <t>rof</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>poco profundo</t>
+          <t>áspero</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12216</v>
+        <v>12256</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>straight</t>
+          <t>open</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>streit</t>
+          <t>óu-pen</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>recto</t>
+          <t>abierto</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12217</v>
+        <v>12257</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>curved</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>korvd</t>
+          <t>kloust</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>curvado</t>
+          <t>cerrado</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12218</v>
+        <v>12258</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>sharp</t>
+          <t>tight</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sharp</t>
+          <t>tait</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>afilado</t>
+          <t>apretado</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12219</v>
+        <v>12259</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>loose</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>soft</t>
+          <t>lus</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>suave</t>
+          <t>suelto</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -2806,420 +2806,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12120</v>
+        <v>12260</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>foun</t>
+          <t>já-pi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>teléfono</t>
+          <t>feliz</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12121</v>
+        <v>12261</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kom-piú-ter</t>
+          <t>sad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>computadora</t>
+          <t>triste</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12122</v>
+        <v>12262</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>angry</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>skrin</t>
+          <t>án-gri</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pantalla</t>
+          <t>enojado</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12123</v>
+        <v>12263</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>charger</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chár-dyer</t>
+          <t>kaind</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cargador</t>
+          <t>amable</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12124</v>
+        <v>12264</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>battery</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bá-te-ri</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>batería</t>
+          <t>malo/mezquino</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12125</v>
+        <v>12265</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>keyboard</t>
+          <t>friendly</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>kí-bord</t>
+          <t>frend-li</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>teclado</t>
+          <t>amigable</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12126</v>
+        <v>12266</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>rude</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>maus</t>
+          <t>rud</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ratón</t>
+          <t>grosero</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12127</v>
+        <v>12267</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>shy</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mó-ni-tor</t>
+          <t>shai</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>monitor</t>
+          <t>tímido</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12128</v>
+        <v>12268</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>laptop</t>
+          <t>brave</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>láp-top</t>
+          <t>breiv</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>portátil</t>
+          <t>valiente</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12129</v>
+        <v>12269</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>scared</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kéi-bul</t>
+          <t>skerd</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cable</t>
+          <t>asustado</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12130</v>
+        <v>12270</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>button</t>
+          <t>calm</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bó-ton</t>
+          <t>kalm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>botón</t>
+          <t>tranquilo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12131</v>
+        <v>12271</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>speaker</t>
+          <t>nervous</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>spí-ker</t>
+          <t>nér-ves</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>altavoz</t>
+          <t>nervioso</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12132</v>
+        <v>12272</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>camera</t>
+          <t>lazy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ká-me-ra</t>
+          <t>léi-zi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cámara</t>
+          <t>perezoso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12133</v>
+        <v>12273</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>app</t>
+          <t>active</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>ák-tiv</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>aplicación</t>
+          <t>activo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12134</v>
+        <v>12274</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>signal</t>
+          <t>polite</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>síg-nal</t>
+          <t>po-láit</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>señal</t>
+          <t>educado</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12135</v>
+        <v>12275</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>honest</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>ó-nest</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>archivo</t>
+          <t>honesto</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12136</v>
+        <v>12276</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>folder</t>
+          <t>generous</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>fól-der</t>
+          <t>llé-ne-ros</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>carpeta</t>
+          <t>generoso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12137</v>
+        <v>12277</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>message</t>
+          <t>jealous</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mé-sich</t>
+          <t>llé-los</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>mensaje</t>
+          <t>celoso</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12138</v>
+        <v>12278</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>funny</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>í-meil</t>
+          <t>fá-ni</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>correo electrónico</t>
+          <t>divertido</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12139</v>
+        <v>12279</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>password</t>
+          <t>serious</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>pás-uord</t>
+          <t>sí-ri-es</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>contraseña</t>
+          <t>serio</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3272,420 +3272,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12160</v>
+        <v>12280</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>good</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kar</t>
+          <t>gud</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>coche</t>
+          <t>bueno</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12161</v>
+        <v>12281</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bos</t>
+          <t>bad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>autobús</t>
+          <t>malo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12162</v>
+        <v>12282</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bike</t>
+          <t>excellent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>baik</t>
+          <t>ék-se-lent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>bicicleta</t>
+          <t>excelente</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12163</v>
+        <v>12283</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>trein</t>
+          <t>té-ri-bl</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tren</t>
+          <t>terrible</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12164</v>
+        <v>12284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>plane</t>
+          <t>useful</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>plein</t>
+          <t>iús-ful</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>avión</t>
+          <t>útil</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12165</v>
+        <v>12285</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>boat</t>
+          <t>useless</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bout</t>
+          <t>iús-les</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>barco</t>
+          <t>inútil</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12166</v>
+        <v>12286</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>truck</t>
+          <t>valuable</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trok</t>
+          <t>vál-iu-abl</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>camión</t>
+          <t>valioso</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12167</v>
+        <v>12287</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>scooter</t>
+          <t>cheap</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>skú-ter</t>
+          <t>chip</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>patinete</t>
+          <t>barato</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12168</v>
+        <v>12288</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>subway</t>
+          <t>expensive</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb-uei</t>
+          <t>eks-pén-siv</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>caro</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12169</v>
+        <v>12289</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>taxi</t>
+          <t>important</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ták-si</t>
+          <t>im-por-tant</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>taxi</t>
+          <t>importante</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12170</v>
+        <v>12290</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>van</t>
+          <t>necessary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>van</t>
+          <t>né-se-se-ri</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>furgoneta</t>
+          <t>necesario</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12171</v>
+        <v>12291</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>driver</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>drai-ver</t>
+          <t>sím-pl</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>conductor</t>
+          <t>sencillo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12172</v>
+        <v>12292</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>passenger</t>
+          <t>complex</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>pá-sen-dyer</t>
+          <t>kom-pléks</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pasajero</t>
+          <t>complejo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12173</v>
+        <v>12293</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>roud</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>carretera</t>
+          <t>fuerte</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12174</v>
+        <v>12294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>wheel</t>
+          <t>weak</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>uuil</t>
+          <t>uuik</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rueda</t>
+          <t>débil</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12175</v>
+        <v>12295</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>engine</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>én-dyin</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>motor</t>
+          <t>inteligente</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12176</v>
+        <v>12296</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>seat</t>
+          <t>dumb</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sit</t>
+          <t>domb</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>asiento</t>
+          <t>tonto</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12177</v>
+        <v>12297</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ticket</t>
+          <t>clean</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>tí-ket</t>
+          <t>klin</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>billete</t>
+          <t>limpio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12178</v>
+        <v>12298</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>safe</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>stéi-shon</t>
+          <t>seif</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>estación</t>
+          <t>seguro</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12179</v>
+        <v>12299</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>dangerous</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>map</t>
+          <t>déin-ller-os</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>mapa</t>
+          <t>peligroso</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -3738,420 +3738,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12280</v>
+        <v>12020</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>street</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gud</t>
+          <t>strit</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>bueno</t>
+          <t>calle</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12281</v>
+        <v>12021</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>building</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bad</t>
+          <t>bíl-ding</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>malo</t>
+          <t>edificio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12282</v>
+        <v>12022</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>excellent</t>
+          <t>traffic</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ék-se-lent</t>
+          <t>trá-fik</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>excelente</t>
+          <t>tráfico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12283</v>
+        <v>12023</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>light</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>té-ri-bl</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>terrible</t>
+          <t>luz/semáforo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12284</v>
+        <v>12024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>useful</t>
+          <t>crosswalk</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>iús-ful</t>
+          <t>krós-uok</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>útil</t>
+          <t>paso de peatones</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12285</v>
+        <v>12025</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>useless</t>
+          <t>sidewalk</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>iús-les</t>
+          <t>sáid-uok</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>inútil</t>
+          <t>acera</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12286</v>
+        <v>12026</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>valuable</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>vál-iu-abl</t>
+          <t>park</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>valioso</t>
+          <t>parque</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12287</v>
+        <v>12027</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cheap</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chip</t>
+          <t>kar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>barato</t>
+          <t>coche</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12288</v>
+        <v>12028</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>expensive</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eks-pén-siv</t>
+          <t>bos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>caro</t>
+          <t>autobús</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12289</v>
+        <v>12029</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>train</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>im-por-tant</t>
+          <t>trein</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>importante</t>
+          <t>tren</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12290</v>
+        <v>12030</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>necessary</t>
+          <t>subway</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>né-se-se-ri</t>
+          <t>sáb-uei</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>necesario</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12291</v>
+        <v>12031</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>simple</t>
+          <t>taxi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sím-pl</t>
+          <t>ták-si</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sencillo</t>
+          <t>taxi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12292</v>
+        <v>12032</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>complex</t>
+          <t>corner</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kom-pléks</t>
+          <t>kór-ner</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>complejo</t>
+          <t>esquina</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12293</v>
+        <v>12033</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>strong</t>
+          <t>shop</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fuerte</t>
+          <t>tienda</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12294</v>
+        <v>12034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>weak</t>
+          <t>mall</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>uuik</t>
+          <t>mol</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>débil</t>
+          <t>centro comercial</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12295</v>
+        <v>12035</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>school</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>skul</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>inteligente</t>
+          <t>escuela</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12296</v>
+        <v>12036</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dumb</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>domb</t>
+          <t>hós-pi-tal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tonto</t>
+          <t>hospital</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12297</v>
+        <v>12037</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>clean</t>
+          <t>station</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>klin</t>
+          <t>stéi-shon</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>limpio</t>
+          <t>estación</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12298</v>
+        <v>12038</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>safe</t>
+          <t>bridge</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>seif</t>
+          <t>bridg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>seguro</t>
+          <t>puente</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12299</v>
+        <v>12039</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dangerous</t>
+          <t>square</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>déin-ller-os</t>
+          <t>skuér</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>peligroso</t>
+          <t>plaza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4204,420 +4204,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12220</v>
+        <v>12040</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>tree</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>red</t>
+          <t>tri</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>rojo</t>
+          <t>árbol</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12221</v>
+        <v>12041</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>river</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>blu</t>
+          <t>rí-ver</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>azul</t>
+          <t>río</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12222</v>
+        <v>12042</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>mountain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>grin</t>
+          <t>máun-ten</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>verde</t>
+          <t>montaña</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12223</v>
+        <v>12043</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>yellow</t>
+          <t>lake</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>yé-lou</t>
+          <t>leik</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>amarillo</t>
+          <t>lago</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12224</v>
+        <v>12044</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>black</t>
+          <t>sea</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>blak</t>
+          <t>sii</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>negro</t>
+          <t>mar</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12225</v>
+        <v>12045</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>white</t>
+          <t>forest</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>uaít</t>
+          <t>fó-rest</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>blanco</t>
+          <t>bosque</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12226</v>
+        <v>12046</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>gray</t>
+          <t>hill</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>grei</t>
+          <t>jil</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>gris</t>
+          <t>colina</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12227</v>
+        <v>12047</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>brown</t>
+          <t>beach</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>braun</t>
+          <t>bich</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>marrón</t>
+          <t>playa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12228</v>
+        <v>12048</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>rock</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>pink</t>
+          <t>rok</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>rosa</t>
+          <t>roca</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12229</v>
+        <v>12049</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ó-ranch</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>naranja</t>
+          <t>arena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12230</v>
+        <v>12050</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>purple</t>
+          <t>cloud</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pér-pl</t>
+          <t>claud</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>morado</t>
+          <t>nube</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12231</v>
+        <v>12051</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bright</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brait</t>
+          <t>rein</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>brillante</t>
+          <t>lluvia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12232</v>
+        <v>12052</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>sun</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>dark</t>
+          <t>son</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>oscuro</t>
+          <t>sol</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12233</v>
+        <v>12053</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>shiny</t>
+          <t>moon</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>shái-ni</t>
+          <t>mun</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>reluciente</t>
+          <t>luna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12234</v>
+        <v>12054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pale</t>
+          <t>star</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>peil</t>
+          <t>star</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>pálido</t>
+          <t>estrella</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12235</v>
+        <v>12055</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>colorful</t>
+          <t>wind</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ká-lor-ful</t>
+          <t>uuind</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>colorido</t>
+          <t>viento</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12236</v>
+        <v>12056</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>dull</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dol</t>
+          <t>snou</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>apagado</t>
+          <t>nieve</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12237</v>
+        <v>12057</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>clean</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>klin</t>
+          <t>storm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>limpio</t>
+          <t>tormenta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12238</v>
+        <v>12058</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>dirty</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>dér-ti</t>
+          <t>lif</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sucio</t>
+          <t>hoja</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12239</v>
+        <v>12059</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>neat</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>nit</t>
+          <t>flá-uer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ordenado</t>
+          <t>flor</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4670,420 +4670,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12100</v>
+        <v>12060</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>book</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>uó-ter</t>
+          <t>buk</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>agua</t>
+          <t>libro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12101</v>
+        <v>12061</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bread</t>
+          <t>notebook</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bred</t>
+          <t>nóut-buk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pan</t>
+          <t>cuaderno</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12102</v>
+        <v>12062</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>pencil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>milk</t>
+          <t>pén-sil</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>leche</t>
+          <t>lápiz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12103</v>
+        <v>12063</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>juice</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>llus</t>
+          <t>pen</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>jugo</t>
+          <t>bolígrafo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12104</v>
+        <v>12064</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>apple</t>
+          <t>eraser</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>á-pel</t>
+          <t>i-réi-ser</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>manzana</t>
+          <t>borrador</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12105</v>
+        <v>12065</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>banana</t>
+          <t>paper</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ba-ná-na</t>
+          <t>péi-per</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>plátano</t>
+          <t>papel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12106</v>
+        <v>12066</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>folder</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mit</t>
+          <t>fól-der</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>carne</t>
+          <t>carpeta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12107</v>
+        <v>12067</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>chicken</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chí-ken</t>
+          <t>desk</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>pollo</t>
+          <t>escritorio</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12108</v>
+        <v>12068</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rice</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rais</t>
+          <t>kom-piú-ter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>arroz</t>
+          <t>computadora</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12109</v>
+        <v>12069</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pás-ta</t>
+          <t>skrin</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>pantalla</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12110</v>
+        <v>12070</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>soup</t>
+          <t>keyboard</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sup</t>
+          <t>kí-bord</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sopa</t>
+          <t>teclado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12111</v>
+        <v>12071</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>maus</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>pescado</t>
+          <t>ratón</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12112</v>
+        <v>12072</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cheese</t>
+          <t>printer</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chis</t>
+          <t>prín-ter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>queso</t>
+          <t>impresora</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12113</v>
+        <v>12073</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>egg</t>
+          <t>document</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>eg</t>
+          <t>dók-iu-ment</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>huevo</t>
+          <t>documento</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12114</v>
+        <v>12074</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>salad</t>
+          <t>report</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sá-lad</t>
+          <t>ri-port</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ensalada</t>
+          <t>reporte</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12115</v>
+        <v>12075</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>coffee</t>
+          <t>task</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>kó-fi</t>
+          <t>task</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>tarea</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12116</v>
+        <v>12076</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>exam</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ti</t>
+          <t>eg-zám</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>té</t>
+          <t>examen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12117</v>
+        <v>12077</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sugar</t>
+          <t>class</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>shú-gar</t>
+          <t>klas</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>azúcar</t>
+          <t>clase</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12118</v>
+        <v>12078</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>salt</t>
+          <t>project</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>solt</t>
+          <t>pró-yect</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sal</t>
+          <t>proyecto</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12119</v>
+        <v>12079</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>boss</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>oil</t>
+          <t>bos</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>aceite</t>
+          <t>jefe</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -5602,420 +5602,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>table</t>
+          <t>water</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>téibol</t>
+          <t>uó-ter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>mesa</t>
+          <t>agua</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12001</v>
+        <v>12101</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chair</t>
+          <t>bread</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cher</t>
+          <t>bred</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>silla</t>
+          <t>pan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12002</v>
+        <v>12102</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bed</t>
+          <t>milk</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cama</t>
+          <t>leche</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12003</v>
+        <v>12103</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>window</t>
+          <t>juice</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>uín-dou</t>
+          <t>llus</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ventana</t>
+          <t>jugo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12004</v>
+        <v>12104</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>door</t>
+          <t>apple</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>dor</t>
+          <t>á-pel</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>puerta</t>
+          <t>manzana</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12005</v>
+        <v>12105</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>banana</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>lamp</t>
+          <t>ba-ná-na</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>lámpara</t>
+          <t>plátano</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12006</v>
+        <v>12106</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sofa</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sóufa</t>
+          <t>mit</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>sofá</t>
+          <t>carne</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12007</v>
+        <v>12107</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>kitchen</t>
+          <t>chicken</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kíchin</t>
+          <t>chí-ken</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cocina</t>
+          <t>pollo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12008</v>
+        <v>12108</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bathroom</t>
+          <t>rice</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>báz-rum</t>
+          <t>rais</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>baño</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12009</v>
+        <v>12109</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mirror</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>míror</t>
+          <t>pás-ta</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>espejo</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12010</v>
+        <v>12110</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>floor</t>
+          <t>soup</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>flor</t>
+          <t>sup</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>piso/suelo</t>
+          <t>sopa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12011</v>
+        <v>12111</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ceiling</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sí-ling</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>techo</t>
+          <t>pescado</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12012</v>
+        <v>12112</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>wall</t>
+          <t>cheese</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>uol</t>
+          <t>chis</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>pared</t>
+          <t>queso</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12013</v>
+        <v>12113</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fridge</t>
+          <t>egg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fridg</t>
+          <t>eg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>refrigerador</t>
+          <t>huevo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12014</v>
+        <v>12114</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>oven</t>
+          <t>salad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>óven</t>
+          <t>sá-lad</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>horno</t>
+          <t>ensalada</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12015</v>
+        <v>12115</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>sink</t>
+          <t>coffee</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sink</t>
+          <t>kó-fi</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fregadero</t>
+          <t>café</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12016</v>
+        <v>12116</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>towel</t>
+          <t>tea</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>tá-uel</t>
+          <t>ti</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>toalla</t>
+          <t>té</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12017</v>
+        <v>12117</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pillow</t>
+          <t>sugar</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>pí-lou</t>
+          <t>shú-gar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>almohada</t>
+          <t>azúcar</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12018</v>
+        <v>12118</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>blanket</t>
+          <t>salt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>blán-ket</t>
+          <t>solt</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>manta</t>
+          <t>sal</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12019</v>
+        <v>12119</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>drawer</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>drór</t>
+          <t>oil</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>cajón</t>
+          <t>aceite</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -6068,420 +6068,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12020</v>
+        <v>12120</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>street</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>strit</t>
+          <t>foun</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>calle</t>
+          <t>teléfono</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12021</v>
+        <v>12121</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>building</t>
+          <t>computer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bíl-ding</t>
+          <t>kom-piú-ter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>edificio</t>
+          <t>computadora</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12022</v>
+        <v>12122</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>traffic</t>
+          <t>screen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trá-fik</t>
+          <t>skrin</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tráfico</t>
+          <t>pantalla</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12023</v>
+        <v>12123</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>charger</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>chár-dyer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>luz/semáforo</t>
+          <t>cargador</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12024</v>
+        <v>12124</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>crosswalk</t>
+          <t>battery</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>krós-uok</t>
+          <t>bá-te-ri</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>paso de peatones</t>
+          <t>batería</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12025</v>
+        <v>12125</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sidewalk</t>
+          <t>keyboard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sáid-uok</t>
+          <t>kí-bord</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>acera</t>
+          <t>teclado</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12026</v>
+        <v>12126</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>mouse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>maus</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>parque</t>
+          <t>ratón</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12027</v>
+        <v>12127</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>kar</t>
+          <t>mó-ni-tor</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>coche</t>
+          <t>monitor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12028</v>
+        <v>12128</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bus</t>
+          <t>laptop</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bos</t>
+          <t>láp-top</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>autobús</t>
+          <t>portátil</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12029</v>
+        <v>12129</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>train</t>
+          <t>cable</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>trein</t>
+          <t>kéi-bul</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tren</t>
+          <t>cable</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12030</v>
+        <v>12130</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>subway</t>
+          <t>button</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sáb-uei</t>
+          <t>bó-ton</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>metro</t>
+          <t>botón</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12031</v>
+        <v>12131</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>taxi</t>
+          <t>speaker</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ták-si</t>
+          <t>spí-ker</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>taxi</t>
+          <t>altavoz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12032</v>
+        <v>12132</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>corner</t>
+          <t>camera</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>kór-ner</t>
+          <t>ká-me-ra</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>esquina</t>
+          <t>cámara</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12033</v>
+        <v>12133</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>app</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>shop</t>
+          <t>ap</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>tienda</t>
+          <t>aplicación</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12034</v>
+        <v>12134</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mall</t>
+          <t>signal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mol</t>
+          <t>síg-nal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>centro comercial</t>
+          <t>señal</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12035</v>
+        <v>12135</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>school</t>
+          <t>file</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>skul</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>escuela</t>
+          <t>archivo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12036</v>
+        <v>12136</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>folder</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>hós-pi-tal</t>
+          <t>fól-der</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hospital</t>
+          <t>carpeta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12037</v>
+        <v>12137</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>station</t>
+          <t>message</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>stéi-shon</t>
+          <t>mé-sich</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>estación</t>
+          <t>mensaje</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12038</v>
+        <v>12138</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>email</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bridg</t>
+          <t>í-meil</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>puente</t>
+          <t>correo electrónico</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12039</v>
+        <v>12139</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>square</t>
+          <t>password</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>skuér</t>
+          <t>pás-uord</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>plaza</t>
+          <t>contraseña</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -6534,420 +6534,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12060</v>
+        <v>12140</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>shirt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>buk</t>
+          <t>shert</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>libro</t>
+          <t>camisa</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12061</v>
+        <v>12141</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>notebook</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>nóut-buk</t>
+          <t>pants</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cuaderno</t>
+          <t>pantalones</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12062</v>
+        <v>12142</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pencil</t>
+          <t>jacket</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pén-sil</t>
+          <t>llá-ket</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lápiz</t>
+          <t>chaqueta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12063</v>
+        <v>12143</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>coat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>pen</t>
+          <t>kout</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>bolígrafo</t>
+          <t>abrigo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12064</v>
+        <v>12144</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>eraser</t>
+          <t>shoes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>i-réi-ser</t>
+          <t>shus</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>borrador</t>
+          <t>zapatos</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12065</v>
+        <v>12145</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>paper</t>
+          <t>boots</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>péi-per</t>
+          <t>buts</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>papel</t>
+          <t>botas</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12066</v>
+        <v>12146</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>folder</t>
+          <t>socks</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>fól-der</t>
+          <t>soks</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>carpeta</t>
+          <t>calcetines</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12067</v>
+        <v>12147</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>desk</t>
+          <t>jat</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>escritorio</t>
+          <t>sombrero</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12068</v>
+        <v>12148</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>computer</t>
+          <t>cap</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>kom-piú-ter</t>
+          <t>kap</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>computadora</t>
+          <t>gorra</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12069</v>
+        <v>12149</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>screen</t>
+          <t>scarf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>skrin</t>
+          <t>skarf</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>pantalla</t>
+          <t>bufanda</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12070</v>
+        <v>12150</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>keyboard</t>
+          <t>gloves</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>kí-bord</t>
+          <t>glovs</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>teclado</t>
+          <t>guantes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12071</v>
+        <v>12151</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mouse</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>maus</t>
+          <t>belt</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ratón</t>
+          <t>cinturón</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12072</v>
+        <v>12152</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>printer</t>
+          <t>tie</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>prín-ter</t>
+          <t>tai</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>impresora</t>
+          <t>corbata</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12073</v>
+        <v>12153</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>document</t>
+          <t>watch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>dók-iu-ment</t>
+          <t>uoch</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>documento</t>
+          <t>reloj (de pulsera)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12074</v>
+        <v>12154</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ri-port</t>
+          <t>bag</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>reporte</t>
+          <t>bolsa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12075</v>
+        <v>12155</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>purse</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>task</t>
+          <t>pors</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>tarea</t>
+          <t>bolso</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12076</v>
+        <v>12156</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>exam</t>
+          <t>sunglasses</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eg-zám</t>
+          <t>sán-glas-es</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>examen</t>
+          <t>gafas de sol</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12077</v>
+        <v>12157</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>dress</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>klas</t>
+          <t>dres</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>clase</t>
+          <t>vestido</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12078</v>
+        <v>12158</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>project</t>
+          <t>skirt</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>pró-yect</t>
+          <t>skert</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>proyecto</t>
+          <t>falda</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12079</v>
+        <v>12159</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>boss</t>
+          <t>hoodie</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bos</t>
+          <t>jú-di</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jefe</t>
+          <t>sudadera con capucha</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -7000,420 +7000,420 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12240</v>
+        <v>12160</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jot</t>
+          <t>kar</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>caliente</t>
+          <t>coche</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12241</v>
+        <v>12161</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cold</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kould</t>
+          <t>bos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>frío</t>
+          <t>autobús</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12242</v>
+        <v>12162</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>warm</t>
+          <t>bike</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>uorm</t>
+          <t>baik</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>tibio</t>
+          <t>bicicleta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12243</v>
+        <v>12163</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cool</t>
+          <t>train</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>kul</t>
+          <t>trein</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fresco</t>
+          <t>tren</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12244</v>
+        <v>12164</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>plane</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>uet</t>
+          <t>plein</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>mojado</t>
+          <t>avión</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>12245</v>
+        <v>12165</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dry</t>
+          <t>boat</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>drai</t>
+          <t>bout</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>seco</t>
+          <t>barco</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12246</v>
+        <v>12166</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>full</t>
+          <t>truck</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ful</t>
+          <t>trok</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>lleno</t>
+          <t>camión</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12247</v>
+        <v>12167</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>empty</t>
+          <t>scooter</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ém-ti</t>
+          <t>skú-ter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vacío</t>
+          <t>patinete</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12248</v>
+        <v>12168</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>broken</t>
+          <t>subway</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bró-ken</t>
+          <t>sáb-uei</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>roto</t>
+          <t>metro</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12249</v>
+        <v>12169</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fixed</t>
+          <t>taxi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fikst</t>
+          <t>ták-si</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>arreglado</t>
+          <t>taxi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12250</v>
+        <v>12170</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>heavy</t>
+          <t>van</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>jé-vi</t>
+          <t>van</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>pesado</t>
+          <t>furgoneta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12251</v>
+        <v>12171</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>driver</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>lait</t>
+          <t>drai-ver</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ligero</t>
+          <t>conductor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12252</v>
+        <v>12172</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>noisy</t>
+          <t>passenger</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>nói-zi</t>
+          <t>pá-sen-dyer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ruidoso</t>
+          <t>pasajero</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>12253</v>
+        <v>12173</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>quiet</t>
+          <t>road</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>kuái-et</t>
+          <t>roud</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>silencioso</t>
+          <t>carretera</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>12254</v>
+        <v>12174</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>smooth</t>
+          <t>wheel</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>smu-z</t>
+          <t>uuil</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>suave</t>
+          <t>rueda</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>12255</v>
+        <v>12175</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rough</t>
+          <t>engine</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>rof</t>
+          <t>én-dyin</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>áspero</t>
+          <t>motor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12256</v>
+        <v>12176</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>seat</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>óu-pen</t>
+          <t>sit</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>abierto</t>
+          <t>asiento</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>12257</v>
+        <v>12177</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>ticket</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>kloust</t>
+          <t>tí-ket</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>cerrado</t>
+          <t>billete</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12258</v>
+        <v>12178</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>tight</t>
+          <t>station</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tait</t>
+          <t>stéi-shon</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>apretado</t>
+          <t>estación</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>12259</v>
+        <v>12179</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>loose</t>
+          <t>map</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>lus</t>
+          <t>map</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>suelto</t>
+          <t>mapa</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
